--- a/data/Seminars_2022_biotech.xlsx
+++ b/data/Seminars_2022_biotech.xlsx
@@ -475,10 +475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #\ ##0.00_);_(&quot;$&quot;* \(#\ ##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #\ ##0_);_(* \(#\ ##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #\ ##0.00_);_(* \(#\ ##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -556,8 +556,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -571,8 +594,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -588,83 +666,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="204"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -673,13 +680,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -701,43 +701,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,139 +839,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,8 +963,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,32 +995,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1021,15 +1006,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,57 +1042,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1468,7 +1468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G30"/>
@@ -1476,7 +1476,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>75</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:7">
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
         <v>79</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
         <v>91</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>91</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:7">
+    <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
         <v>100</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
         <v>104</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:7">
+    <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
         <v>114</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>118</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:7">
+    <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>122</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" ht="16.8" hidden="1" spans="1:7">
+    <row r="28" ht="16.8" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>125</v>
       </c>
@@ -2132,11 +2132,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F30">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <hyperlinks>
